--- a/SQL/Ankit Bansal/SQL Medium Complex Interview Problems/Problem_links.xlsx
+++ b/SQL/Ankit Bansal/SQL Medium Complex Interview Problems/Problem_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Interview_preparation\SQL\Ankit Bansal\SQL Medium Complex Interview Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EB4662-448C-4FB9-AC86-44B63DB49D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E178B69A-DE77-4A2C-8A4F-6141B7FD5A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>S.No</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=dOLBRfwzYcU&amp;list=PLBTZqjSKn0IfuIqbMIqzS-waofsPHMS0E&amp;index=1&amp;t=1s&amp;ab_channel=AnkitBansal</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FZ0GCcnIIWA&amp;list=PLBTZqjSKn0IfuIqbMIqzS-waofsPHMS0E&amp;index=2&amp;ab_channel=AnkitBansal</t>
+  </si>
+  <si>
+    <t>Business Days Excluding Weekends and Public Holidays</t>
   </si>
 </sst>
 </file>
@@ -402,13 +408,13 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="116.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -438,8 +444,12 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -591,6 +601,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{B6DE9FCC-87B6-4DAB-ACE9-48273451647A}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{7985D6E6-E265-4718-8386-6CCE809B3F2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
